--- a/products.xlsx
+++ b/products.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
   <si>
     <t>Product Name</t>
   </si>
@@ -71,13 +71,16 @@
   </si>
   <si>
     <t>Laptops</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/81-KM86VkjL._SX522_.jpg,https://m.media-amazon.com/images/I/51iF0p5h+LL._SS40_.jpg,https://m.media-amazon.com/images/I/41FyTsAdaLL._SS40_.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -94,12 +97,11 @@
       <b/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18.0"/>
+      <sz val="12.0"/>
       <color rgb="FF0F1111"/>
-      <name val="&quot;Amazon Ember&quot;"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <u/>
@@ -116,7 +118,6 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -126,8 +127,14 @@
     </font>
     <font>
       <sz val="11.0"/>
-      <color rgb="FF0F1111"/>
-      <name val="&quot;Amazon Ember&quot;"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -164,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -172,20 +179,24 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -404,7 +415,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="43.57"/>
     <col customWidth="1" min="2" max="2" width="59.57"/>
-    <col customWidth="1" min="3" max="6" width="8.71"/>
+    <col customWidth="1" min="3" max="3" width="53.86"/>
+    <col customWidth="1" min="4" max="6" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -448,7 +460,7 @@
       <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -465,7 +477,7 @@
       <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -476,7 +488,106 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8"/>
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -1466,10 +1577,22 @@
     <hyperlink r:id="rId4" ref="C3"/>
     <hyperlink r:id="rId5" ref="B4"/>
     <hyperlink r:id="rId6" ref="C4"/>
+    <hyperlink r:id="rId7" ref="B5"/>
+    <hyperlink r:id="rId8" ref="C5"/>
+    <hyperlink r:id="rId9" ref="B6"/>
+    <hyperlink r:id="rId10" ref="C6"/>
+    <hyperlink r:id="rId11" ref="B7"/>
+    <hyperlink r:id="rId12" ref="C7"/>
+    <hyperlink r:id="rId13" ref="B8"/>
+    <hyperlink r:id="rId14" ref="C8"/>
+    <hyperlink r:id="rId15" ref="B9"/>
+    <hyperlink r:id="rId16" ref="C9"/>
+    <hyperlink r:id="rId17" ref="B10"/>
+    <hyperlink r:id="rId18" ref="C10"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId19"/>
 </worksheet>
 </file>
--- a/products.xlsx
+++ b/products.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="21">
   <si>
     <t>Product Name</t>
   </si>
@@ -586,6 +586,108 @@
         <v>18</v>
       </c>
       <c r="E10" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1589,10 +1691,22 @@
     <hyperlink r:id="rId16" ref="C9"/>
     <hyperlink r:id="rId17" ref="B10"/>
     <hyperlink r:id="rId18" ref="C10"/>
+    <hyperlink r:id="rId19" ref="B11"/>
+    <hyperlink r:id="rId20" ref="C11"/>
+    <hyperlink r:id="rId21" ref="B12"/>
+    <hyperlink r:id="rId22" ref="C12"/>
+    <hyperlink r:id="rId23" ref="B13"/>
+    <hyperlink r:id="rId24" ref="C13"/>
+    <hyperlink r:id="rId25" ref="B14"/>
+    <hyperlink r:id="rId26" ref="C14"/>
+    <hyperlink r:id="rId27" ref="B15"/>
+    <hyperlink r:id="rId28" ref="C15"/>
+    <hyperlink r:id="rId29" ref="B16"/>
+    <hyperlink r:id="rId30" ref="C16"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId19"/>
+  <drawing r:id="rId31"/>
 </worksheet>
 </file>
--- a/products.xlsx
+++ b/products.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="21">
   <si>
     <t>Product Name</t>
   </si>
@@ -688,6 +688,74 @@
         <v>18</v>
       </c>
       <c r="E16" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1703,10 +1771,18 @@
     <hyperlink r:id="rId28" ref="C15"/>
     <hyperlink r:id="rId29" ref="B16"/>
     <hyperlink r:id="rId30" ref="C16"/>
+    <hyperlink r:id="rId31" ref="B17"/>
+    <hyperlink r:id="rId32" ref="C17"/>
+    <hyperlink r:id="rId33" ref="B18"/>
+    <hyperlink r:id="rId34" ref="C18"/>
+    <hyperlink r:id="rId35" ref="B19"/>
+    <hyperlink r:id="rId36" ref="C19"/>
+    <hyperlink r:id="rId37" ref="B20"/>
+    <hyperlink r:id="rId38" ref="C20"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId31"/>
+  <drawing r:id="rId39"/>
 </worksheet>
 </file>